--- a/InputFiles/TC08_Canine_StudyOSA01-Breed_SampType_PrimMaligTumor.xlsx
+++ b/InputFiles/TC08_Canine_StudyOSA01-Breed_SampType_PrimMaligTumor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\Develope_2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266379FE-863E-404D-A8C5-7EDF6DE9BF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E63F23E-C3D7-4654-B8BE-19556E43E712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -68,25 +68,6 @@
   <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (r:registration)--&gt;(c), (samp:sample)--&gt;(c)
 WHERE s.clinical_study_designation IN ['OSA01'] and demo.breed in ['Old English Sheepdog'] and samp.summarized_sample_type IN ['Primary Malignant Tumor Tissue']
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co
-RETURN  coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS  `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-        coalesce(demo.patient_age_at_enrollment, '') AS Age ,
-        coalesce(demo.sex, '') AS Sex ,
-        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-        coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`,
-        coalesce(co.cohort_description, '') AS `Cohort`</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (r:registration)--&gt;(c), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation IN ['OSA01'] and demo.breed in ['Old English Sheepdog'] and samp.summarized_sample_type IN ['Primary Malignant Tumor Tissue']
 WITH DISTINCT samp AS samp, c, demo, diag
 RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
         coalesce(c.case_id, '') AS `Case ID`, 
@@ -100,38 +81,6 @@
         coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
         coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis) ,(r:registration)--&gt;(c), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation IN ['OSA01'] and demo.breed in ['Old English Sheepdog'] and samp.summarized_sample_type IN ['Primary Malignant Tumor Tissue']
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`, 
-        coalesce(f.file_type, '') AS `File Type`, 
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `File Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(s:study)
-MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis),(r:registration)--&gt;(c), (samp:sample)--&gt;(c)
-WHERE s.clinical_study_designation IN ['OSA01'] and demo.breed in ['Old English Sheepdog'] and samp.summarized_sample_type IN ['Primary Malignant Tumor Tissue']
-WITH DISTINCT f, s
-RETURN 
-  coalesce(f.file_name, '') AS `File Name`,
-  coalesce(f.file_type, '') AS `File Type`,
-  coalesce("study", '') AS `Association`,
-  coalesce(f.file_description, '') AS `Description`,
-  coalesce(f.file_format, '') AS `File Format`,
-  coalesce(f.file_size, '') AS `Size`,
-  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
   <si>
     <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
@@ -149,12 +98,89 @@
     count(distinct f) AS `Case Files`,
     count(distinct sf) AS `Study Files`</t>
   </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis), (r:registration)--&gt;(c), (samp:sample)--&gt;(c)
+WHERE s.clinical_study_designation IN ['OSA01'] and demo.breed in ['Old English Sheepdog'] and samp.summarized_sample_type IN ['Primary Malignant Tumor Tissue']
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co,demo.patient_age_at_enrollment AS age, demo.weight as weight
+RETURN  coalesce(c.case_id, '') AS `Case ID` ,
+        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
+        coalesce(s.clinical_study_type, '') AS  `Study Type`,
+        coalesce(demo.breed, '') AS Breed ,
+        coalesce(diag.disease_term, '') AS Diagnosis ,
+        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
+        CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END AS Age,
+        coalesce(demo.sex, '') AS Sex ,
+        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+        coalesce(CASE weight % 1 WHEN 0 THEN apoc.convert.toInteger(weight) ELSE weight END, '') AS `Weight (kg)`,
+        coalesce(diag.best_response, '') AS `Response to Treatment`,
+        coalesce(co.cohort_description, '') AS `Cohort`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MATCH (f:file)--&gt;(s:study) 
+MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis),(samp:sample)--&gt;(c)
+WHERE s.clinical_study_designation IN ['OSA01'] and demo.breed in ['Old English Sheepdog'] and samp.summarized_sample_type IN ['Primary Malignant Tumor Tissue']
+WITH DISTINCT f,  s, c, demo, diag,samp
+WITH
+        f, c, demo, diag, s,samp,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH    
+        f, c, demo, diag, s,samp,
+        f.file_size /(1024^i) AS value, 10^precision AS factor,
+        units[i] as unit
+        WITH    
+        f,  c, demo, diag, s, unit,samp,
+        round(factor * value)/factor AS size
+RETURN DISTINCT
+  coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_type, '') AS `File Type`,
+  coalesce("study", '') AS `Association`,
+  coalesce(f.file_description, '') AS `Description`,
+  coalesce(f.file_format, '') AS  Format,
+  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
+    <t>MATCH (c:case)&lt;--(demo:demographic)
+MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+MATCH (samp:sample)--&gt;(c)
+MATCH (f:file)-[*]-&gt;(c)
+MATCH (f)--&gt;(parent)
+WHERE s.clinical_study_designation IN ['OSA01'] and demo.breed in ['Old English Sheepdog'] and samp.summarized_sample_type IN ['Primary Malignant Tumor Tissue']
+OPTIONAL MATCH (f)-[*]-&gt;(saml:sample)
+WITH DISTINCT f, saml, parent, c, diag, demo, s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH
+        f, saml, parent, c, diag, demo, s,
+        f.file_size /(1024^i) AS value,
+        10^precision AS factor,
+        units[i] as unit
+WITH
+        f, saml, parent, c, diag, demo, s, unit,
+        round(factor * value)/factor AS size
+RETURN distinct
+        coalesce(f.file_name, '') AS `File Name`,
+        coalesce(f.file_type, '') AS `File Type`,
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `Format`,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+        coalesce(saml.sample_id, '') AS `Sample ID`,
+        coalesce(c.case_id, '') AS `Case ID`,
+        coalesce(demo.breed,'') AS Breed ,
+        coalesce(diag.disease_term,'') AS Diagnosis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +208,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,12 +236,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +563,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="56.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -569,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -586,10 +621,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -602,11 +637,11 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -623,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
